--- a/biology/Botanique/Silene_stenophylla/Silene_stenophylla.xlsx
+++ b/biology/Botanique/Silene_stenophylla/Silene_stenophylla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Silene stenophylla  est une espèce de plantes herbacées vivace appartenant au genre Silene et à la famille des Caryophyllacées.
 </t>
@@ -511,9 +523,11 @@
           <t>Variété préhistorique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En février 2012, des chercheurs de l’Académie des sciences de Russie ont réussi à régénérer cette plante à fleurs à partir du tissu de fruits immatures stockés par des écureuils il y a plus de 32 000 ans retrouvés dans le pergélisol à 38 mètres de profondeur près de la rivière Kolyma en Sibérie. Le tissu végétal a été cultivé in vitro et les fleurs ont été pollinisées avec du pollen retrouvé à côté des graines. Celles-ci ont donné naissance à la variété ancienne qui diffère de la variété moderne par la forme de la corolle de sa petite fleur blanche[2]. Cette performance constitue une première à partir de Spermatophytes du Pléistocène[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En février 2012, des chercheurs de l’Académie des sciences de Russie ont réussi à régénérer cette plante à fleurs à partir du tissu de fruits immatures stockés par des écureuils il y a plus de 32 000 ans retrouvés dans le pergélisol à 38 mètres de profondeur près de la rivière Kolyma en Sibérie. Le tissu végétal a été cultivé in vitro et les fleurs ont été pollinisées avec du pollen retrouvé à côté des graines. Celles-ci ont donné naissance à la variété ancienne qui diffère de la variété moderne par la forme de la corolle de sa petite fleur blanche. Cette performance constitue une première à partir de Spermatophytes du Pléistocène.
 Une partie de ces semences sont désormais conservées dans le coffre-fort du Spitzberg.
 </t>
         </is>
